--- a/stock_historical_data/1mo/GRWRHITECH.NS.xlsx
+++ b/stock_historical_data/1mo/GRWRHITECH.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B2" t="n">
-        <v>798</v>
+        <v>864.0194473724281</v>
       </c>
       <c r="C2" t="n">
-        <v>815</v>
+        <v>868.1208174856085</v>
       </c>
       <c r="D2" t="n">
-        <v>682</v>
+        <v>591.816210168701</v>
       </c>
       <c r="E2" t="n">
-        <v>698.2999877929688</v>
-      </c>
-      <c r="F2" t="n">
-        <v>684.0036010742188</v>
-      </c>
+        <v>779.258056640625</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>578428</v>
+        <v>877159</v>
       </c>
       <c r="H2" t="n">
         <v>2022</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B3" t="n">
-        <v>710</v>
+        <v>798</v>
       </c>
       <c r="C3" t="n">
-        <v>787</v>
+        <v>815</v>
       </c>
       <c r="D3" t="n">
-        <v>697.6500244140625</v>
+        <v>682</v>
       </c>
       <c r="E3" t="n">
-        <v>713.9500122070312</v>
+        <v>698.2999877929688</v>
       </c>
       <c r="F3" t="n">
-        <v>699.3331909179688</v>
+        <v>684.0036010742188</v>
       </c>
       <c r="G3" t="n">
-        <v>317123</v>
+        <v>578428</v>
       </c>
       <c r="H3" t="n">
         <v>2022</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B4" t="n">
+        <v>710</v>
+      </c>
+      <c r="C4" t="n">
+        <v>787</v>
+      </c>
+      <c r="D4" t="n">
+        <v>697.6500244140625</v>
+      </c>
+      <c r="E4" t="n">
         <v>713.9500122070312</v>
       </c>
-      <c r="C4" t="n">
-        <v>725.5999755859375</v>
-      </c>
-      <c r="D4" t="n">
-        <v>583.25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>664.8499755859375</v>
-      </c>
       <c r="F4" t="n">
-        <v>651.2383422851562</v>
+        <v>699.3331909179688</v>
       </c>
       <c r="G4" t="n">
-        <v>333799</v>
+        <v>317123</v>
       </c>
       <c r="H4" t="n">
         <v>2022</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B5" t="n">
-        <v>674.75</v>
+        <v>713.9500122070312</v>
       </c>
       <c r="C5" t="n">
-        <v>710</v>
+        <v>725.5999755859375</v>
       </c>
       <c r="D5" t="n">
-        <v>631</v>
+        <v>583.25</v>
       </c>
       <c r="E5" t="n">
-        <v>672.25</v>
+        <v>664.8499755859375</v>
       </c>
       <c r="F5" t="n">
-        <v>658.4868774414062</v>
+        <v>651.2383422851562</v>
       </c>
       <c r="G5" t="n">
-        <v>180469</v>
+        <v>333799</v>
       </c>
       <c r="H5" t="n">
         <v>2022</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B6" t="n">
-        <v>660.2000122070312</v>
+        <v>674.75</v>
       </c>
       <c r="C6" t="n">
-        <v>929</v>
+        <v>710</v>
       </c>
       <c r="D6" t="n">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="E6" t="n">
-        <v>889.9000244140625</v>
+        <v>672.25</v>
       </c>
       <c r="F6" t="n">
-        <v>871.680908203125</v>
+        <v>658.4868774414062</v>
       </c>
       <c r="G6" t="n">
-        <v>1071150</v>
+        <v>180469</v>
       </c>
       <c r="H6" t="n">
         <v>2022</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B7" t="n">
-        <v>896.5999755859375</v>
+        <v>660.2000122070312</v>
       </c>
       <c r="C7" t="n">
-        <v>896.5999755859375</v>
+        <v>929</v>
       </c>
       <c r="D7" t="n">
-        <v>776.9500122070312</v>
+        <v>651</v>
       </c>
       <c r="E7" t="n">
-        <v>819.4000244140625</v>
+        <v>889.9000244140625</v>
       </c>
       <c r="F7" t="n">
-        <v>802.624267578125</v>
+        <v>871.680908203125</v>
       </c>
       <c r="G7" t="n">
-        <v>501002</v>
+        <v>1071150</v>
       </c>
       <c r="H7" t="n">
         <v>2022</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B8" t="n">
-        <v>818.25</v>
+        <v>896.5999755859375</v>
       </c>
       <c r="C8" t="n">
-        <v>847</v>
+        <v>896.5999755859375</v>
       </c>
       <c r="D8" t="n">
-        <v>652.5</v>
+        <v>776.9500122070312</v>
       </c>
       <c r="E8" t="n">
-        <v>759.7999877929688</v>
+        <v>819.4000244140625</v>
       </c>
       <c r="F8" t="n">
-        <v>744.2444458007812</v>
+        <v>802.624267578125</v>
       </c>
       <c r="G8" t="n">
-        <v>757517</v>
+        <v>501002</v>
       </c>
       <c r="H8" t="n">
         <v>2022</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B9" t="n">
-        <v>756</v>
+        <v>818.25</v>
       </c>
       <c r="C9" t="n">
-        <v>789.75</v>
+        <v>847</v>
       </c>
       <c r="D9" t="n">
-        <v>661</v>
+        <v>652.5</v>
       </c>
       <c r="E9" t="n">
-        <v>683.1500244140625</v>
+        <v>759.7999877929688</v>
       </c>
       <c r="F9" t="n">
-        <v>677.8283081054688</v>
+        <v>744.2444458007812</v>
       </c>
       <c r="G9" t="n">
-        <v>616287</v>
+        <v>757517</v>
       </c>
       <c r="H9" t="n">
         <v>2022</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B10" t="n">
-        <v>675.4500122070312</v>
+        <v>756</v>
       </c>
       <c r="C10" t="n">
-        <v>769.2999877929688</v>
+        <v>789.75</v>
       </c>
       <c r="D10" t="n">
-        <v>615.75</v>
+        <v>661</v>
       </c>
       <c r="E10" t="n">
-        <v>694.4500122070312</v>
+        <v>683.1500244140625</v>
       </c>
       <c r="F10" t="n">
-        <v>689.040283203125</v>
+        <v>677.8283081054688</v>
       </c>
       <c r="G10" t="n">
-        <v>375174</v>
+        <v>616287</v>
       </c>
       <c r="H10" t="n">
         <v>2022</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B11" t="n">
-        <v>707.9000244140625</v>
+        <v>675.4500122070312</v>
       </c>
       <c r="C11" t="n">
-        <v>729</v>
+        <v>769.2999877929688</v>
       </c>
       <c r="D11" t="n">
-        <v>630</v>
+        <v>615.75</v>
       </c>
       <c r="E11" t="n">
-        <v>658</v>
+        <v>694.4500122070312</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8742065429688</v>
+        <v>689.040283203125</v>
       </c>
       <c r="G11" t="n">
-        <v>376289</v>
+        <v>375174</v>
       </c>
       <c r="H11" t="n">
         <v>2022</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B12" t="n">
-        <v>665</v>
+        <v>707.9000244140625</v>
       </c>
       <c r="C12" t="n">
-        <v>692</v>
+        <v>729</v>
       </c>
       <c r="D12" t="n">
-        <v>594</v>
+        <v>630</v>
       </c>
       <c r="E12" t="n">
-        <v>616</v>
+        <v>658</v>
       </c>
       <c r="F12" t="n">
-        <v>611.2013549804688</v>
+        <v>652.8742065429688</v>
       </c>
       <c r="G12" t="n">
-        <v>501277</v>
+        <v>376289</v>
       </c>
       <c r="H12" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B13" t="n">
-        <v>636.9500122070312</v>
+        <v>665</v>
       </c>
       <c r="C13" t="n">
-        <v>706.7000122070312</v>
+        <v>692</v>
       </c>
       <c r="D13" t="n">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="E13" t="n">
-        <v>614.1500244140625</v>
+        <v>616</v>
       </c>
       <c r="F13" t="n">
-        <v>609.3658447265625</v>
+        <v>611.2013549804688</v>
       </c>
       <c r="G13" t="n">
-        <v>455327</v>
+        <v>501277</v>
       </c>
       <c r="H13" t="n">
         <v>2023</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B14" t="n">
-        <v>619.7999877929688</v>
+        <v>636.9500122070312</v>
       </c>
       <c r="C14" t="n">
-        <v>619.7999877929688</v>
+        <v>706.7000122070312</v>
       </c>
       <c r="D14" t="n">
-        <v>491.3500061035156</v>
+        <v>601</v>
       </c>
       <c r="E14" t="n">
-        <v>526.25</v>
+        <v>614.1500244140625</v>
       </c>
       <c r="F14" t="n">
-        <v>522.1505126953125</v>
+        <v>609.3658447265625</v>
       </c>
       <c r="G14" t="n">
-        <v>837799</v>
+        <v>455327</v>
       </c>
       <c r="H14" t="n">
         <v>2023</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B15" t="n">
-        <v>538.9000244140625</v>
+        <v>619.7999877929688</v>
       </c>
       <c r="C15" t="n">
-        <v>598.2000122070312</v>
+        <v>619.7999877929688</v>
       </c>
       <c r="D15" t="n">
-        <v>518.5999755859375</v>
+        <v>491.3500061035156</v>
       </c>
       <c r="E15" t="n">
-        <v>551.2000122070312</v>
+        <v>526.25</v>
       </c>
       <c r="F15" t="n">
-        <v>546.9061889648438</v>
+        <v>522.1505126953125</v>
       </c>
       <c r="G15" t="n">
-        <v>629944</v>
+        <v>837799</v>
       </c>
       <c r="H15" t="n">
         <v>2023</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B16" t="n">
+        <v>538.9000244140625</v>
+      </c>
+      <c r="C16" t="n">
+        <v>598.2000122070312</v>
+      </c>
+      <c r="D16" t="n">
+        <v>518.5999755859375</v>
+      </c>
+      <c r="E16" t="n">
         <v>551.2000122070312</v>
       </c>
-      <c r="C16" t="n">
-        <v>686</v>
-      </c>
-      <c r="D16" t="n">
-        <v>551.2000122070312</v>
-      </c>
-      <c r="E16" t="n">
-        <v>674.0999755859375</v>
-      </c>
       <c r="F16" t="n">
-        <v>668.8487548828125</v>
+        <v>546.9061889648438</v>
       </c>
       <c r="G16" t="n">
-        <v>782414</v>
+        <v>629944</v>
       </c>
       <c r="H16" t="n">
         <v>2023</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B17" t="n">
-        <v>682</v>
+        <v>551.2000122070312</v>
       </c>
       <c r="C17" t="n">
-        <v>904</v>
+        <v>686</v>
       </c>
       <c r="D17" t="n">
-        <v>676</v>
+        <v>551.2000122070312</v>
       </c>
       <c r="E17" t="n">
-        <v>882.3499755859375</v>
+        <v>674.0999755859375</v>
       </c>
       <c r="F17" t="n">
-        <v>875.4765014648438</v>
+        <v>668.8487548828125</v>
       </c>
       <c r="G17" t="n">
-        <v>1389066</v>
+        <v>782414</v>
       </c>
       <c r="H17" t="n">
         <v>2023</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B18" t="n">
-        <v>894.9500122070312</v>
+        <v>682</v>
       </c>
       <c r="C18" t="n">
-        <v>1019.700012207031</v>
+        <v>904</v>
       </c>
       <c r="D18" t="n">
-        <v>817.75</v>
+        <v>676</v>
       </c>
       <c r="E18" t="n">
-        <v>1004.200012207031</v>
+        <v>882.3499755859375</v>
       </c>
       <c r="F18" t="n">
-        <v>996.3773193359375</v>
+        <v>875.4765014648438</v>
       </c>
       <c r="G18" t="n">
-        <v>1447983</v>
+        <v>1389066</v>
       </c>
       <c r="H18" t="n">
         <v>2023</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B19" t="n">
-        <v>1010.950012207031</v>
+        <v>894.9500122070312</v>
       </c>
       <c r="C19" t="n">
-        <v>1213</v>
+        <v>1019.700012207031</v>
       </c>
       <c r="D19" t="n">
-        <v>893</v>
+        <v>817.75</v>
       </c>
       <c r="E19" t="n">
-        <v>1156.800048828125</v>
+        <v>1004.200012207031</v>
       </c>
       <c r="F19" t="n">
-        <v>1147.78857421875</v>
+        <v>996.3773193359375</v>
       </c>
       <c r="G19" t="n">
-        <v>2190970</v>
+        <v>1447983</v>
       </c>
       <c r="H19" t="n">
         <v>2023</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B20" t="n">
+        <v>1010.950012207031</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1213</v>
+      </c>
+      <c r="D20" t="n">
+        <v>893</v>
+      </c>
+      <c r="E20" t="n">
         <v>1156.800048828125</v>
       </c>
-      <c r="C20" t="n">
-        <v>1475</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1154.400024414062</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1462.199951171875</v>
-      </c>
       <c r="F20" t="n">
-        <v>1450.809448242188</v>
+        <v>1147.78857421875</v>
       </c>
       <c r="G20" t="n">
-        <v>1011400</v>
+        <v>2190970</v>
       </c>
       <c r="H20" t="n">
         <v>2023</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B21" t="n">
+        <v>1156.800048828125</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1475</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1154.400024414062</v>
+      </c>
+      <c r="E21" t="n">
         <v>1462.199951171875</v>
       </c>
-      <c r="C21" t="n">
-        <v>1634</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1270</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1471.050048828125</v>
-      </c>
       <c r="F21" t="n">
-        <v>1471.050048828125</v>
+        <v>1450.809448242188</v>
       </c>
       <c r="G21" t="n">
-        <v>1235053</v>
+        <v>1011400</v>
       </c>
       <c r="H21" t="n">
         <v>2023</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B22" t="n">
-        <v>1465.050048828125</v>
+        <v>1462.199951171875</v>
       </c>
       <c r="C22" t="n">
-        <v>1584</v>
+        <v>1634</v>
       </c>
       <c r="D22" t="n">
-        <v>1290.900024414062</v>
+        <v>1270</v>
       </c>
       <c r="E22" t="n">
-        <v>1418.599975585938</v>
+        <v>1471.050048828125</v>
       </c>
       <c r="F22" t="n">
-        <v>1418.599975585938</v>
+        <v>1471.050048828125</v>
       </c>
       <c r="G22" t="n">
-        <v>702290</v>
+        <v>1235053</v>
       </c>
       <c r="H22" t="n">
         <v>2023</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B23" t="n">
-        <v>1406</v>
+        <v>1465.050048828125</v>
       </c>
       <c r="C23" t="n">
-        <v>1510.949951171875</v>
+        <v>1584</v>
       </c>
       <c r="D23" t="n">
-        <v>1297.5</v>
+        <v>1290.900024414062</v>
       </c>
       <c r="E23" t="n">
-        <v>1401.900024414062</v>
+        <v>1418.599975585938</v>
       </c>
       <c r="F23" t="n">
-        <v>1401.900024414062</v>
+        <v>1418.599975585938</v>
       </c>
       <c r="G23" t="n">
-        <v>400976</v>
+        <v>702290</v>
       </c>
       <c r="H23" t="n">
         <v>2023</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B24" t="n">
+        <v>1406</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1510.949951171875</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1297.5</v>
+      </c>
+      <c r="E24" t="n">
         <v>1401.900024414062</v>
       </c>
-      <c r="C24" t="n">
-        <v>1778.949951171875</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1358.050048828125</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1694.949951171875</v>
-      </c>
       <c r="F24" t="n">
-        <v>1694.949951171875</v>
+        <v>1401.900024414062</v>
       </c>
       <c r="G24" t="n">
-        <v>642093</v>
+        <v>400976</v>
       </c>
       <c r="H24" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B25" t="n">
-        <v>1701.949951171875</v>
+        <v>1401.900024414062</v>
       </c>
       <c r="C25" t="n">
-        <v>2200</v>
+        <v>1778.949951171875</v>
       </c>
       <c r="D25" t="n">
-        <v>1540.300048828125</v>
+        <v>1358.050048828125</v>
       </c>
       <c r="E25" t="n">
-        <v>1903.349975585938</v>
+        <v>1694.949951171875</v>
       </c>
       <c r="F25" t="n">
-        <v>1903.349975585938</v>
+        <v>1694.949951171875</v>
       </c>
       <c r="G25" t="n">
-        <v>1345377</v>
+        <v>642093</v>
       </c>
       <c r="H25" t="n">
         <v>2024</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B26" t="n">
-        <v>1915.550048828125</v>
+        <v>1701.949951171875</v>
       </c>
       <c r="C26" t="n">
-        <v>1975</v>
+        <v>2200</v>
       </c>
       <c r="D26" t="n">
-        <v>1563.25</v>
+        <v>1540.300048828125</v>
       </c>
       <c r="E26" t="n">
-        <v>1748.5</v>
+        <v>1903.349975585938</v>
       </c>
       <c r="F26" t="n">
-        <v>1748.5</v>
+        <v>1903.349975585938</v>
       </c>
       <c r="G26" t="n">
-        <v>636736</v>
+        <v>1345377</v>
       </c>
       <c r="H26" t="n">
         <v>2024</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B27" t="n">
-        <v>1755</v>
+        <v>1915.550048828125</v>
       </c>
       <c r="C27" t="n">
-        <v>1855</v>
+        <v>1975</v>
       </c>
       <c r="D27" t="n">
-        <v>1650.300048828125</v>
+        <v>1563.25</v>
       </c>
       <c r="E27" t="n">
-        <v>1788.349975585938</v>
+        <v>1748.5</v>
       </c>
       <c r="F27" t="n">
-        <v>1788.349975585938</v>
+        <v>1748.5</v>
       </c>
       <c r="G27" t="n">
-        <v>440337</v>
+        <v>636736</v>
       </c>
       <c r="H27" t="n">
         <v>2024</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B28" t="n">
+        <v>1755</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1855</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1650.300048828125</v>
+      </c>
+      <c r="E28" t="n">
         <v>1788.349975585938</v>
       </c>
-      <c r="C28" t="n">
-        <v>1858.199951171875</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1513.25</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1804.099975585938</v>
-      </c>
       <c r="F28" t="n">
-        <v>1804.099975585938</v>
+        <v>1788.349975585938</v>
       </c>
       <c r="G28" t="n">
-        <v>1014683</v>
+        <v>440337</v>
       </c>
       <c r="H28" t="n">
         <v>2024</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,56 +1949,514 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B29" t="n">
-        <v>1888</v>
+        <v>1788.349975585938</v>
       </c>
       <c r="C29" t="n">
-        <v>2119.85009765625</v>
+        <v>1858.199951171875</v>
       </c>
       <c r="D29" t="n">
-        <v>1551</v>
+        <v>1513.25</v>
       </c>
       <c r="E29" t="n">
-        <v>2028.800048828125</v>
+        <v>1804.099975585938</v>
       </c>
       <c r="F29" t="n">
-        <v>2028.800048828125</v>
+        <v>1804.099975585938</v>
       </c>
       <c r="G29" t="n">
-        <v>406824</v>
+        <v>1014683</v>
       </c>
       <c r="H29" t="n">
         <v>2024</v>
       </c>
       <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>18</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1888</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2119.85009765625</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1551</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2028.800048828125</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2028.800048828125</v>
+      </c>
+      <c r="G30" t="n">
+        <v>406824</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I30" t="n">
         <v>6</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>22</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2</v>
       </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2380.455165169152</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2631.879348160159</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2177.581132081807</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2488.1728515625</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>2308522</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>27</v>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2522.217891849269</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3537.086592996523</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2292.925356226608</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3287.25732421875</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>3002726</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>31</v>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3287.257169313536</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3982.661568802785</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3103.823149459357</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3849.871337890625</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>2100965</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>35</v>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3845</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4218</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3393.800048828125</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4086.199951171875</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>1635816</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>40</v>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4140</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3712.75</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4937.0498046875</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>2051089</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I35" t="n">
+        <v>11</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>44</v>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4880</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5378.10009765625</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4782.89990234375</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5007.9501953125</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>1418026</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>48</v>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5015</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5254.64990234375</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3200</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3631.64990234375</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>2074153</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3602</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4310</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3150.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3770.800048828125</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>3222094</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3945</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4543.9501953125</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3701.550048828125</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3944.75</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>2270186</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>9</v>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
